--- a/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoDoanhThuSuaChuaTheoCoVan.xlsx
+++ b/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoDoanhThuSuaChuaTheoCoVan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="24240" windowHeight="13020" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Mã cố vấn</t>
   </si>
@@ -40,6 +51,9 @@
     <t>Tổng tiền vốn</t>
   </si>
   <si>
+    <t>Lợi nhuận</t>
+  </si>
+  <si>
     <t>Giao dịch gần nhất</t>
   </si>
   <si>
@@ -49,7 +63,7 @@
     <t>BÁO CÁO DOANH THU SỬA CHỮA THEO CỐ VẤN DỊCH VỤ</t>
   </si>
   <si>
-    <t>Từ ngày 08/11/2021 đến ngày 14/11/2021</t>
+    <t>Từ ngày 01/10/2023 đến ngày 31/10/2023</t>
   </si>
   <si>
     <t>Chi nhánh: Ssoft CN Cầu Giấy</t>
@@ -58,31 +72,31 @@
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>NV00238</t>
-  </si>
-  <si>
-    <t>CG_NV2909_01</t>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Tổng giảm trừ BH</t>
+  </si>
+  <si>
+    <t>NV00194</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Phương</t>
   </si>
   <si>
     <t>Ssoft CN Cầu Giấy</t>
   </si>
   <si>
-    <t>NV00237</t>
-  </si>
-  <si>
-    <t>Lê Hải Phong</t>
-  </si>
-  <si>
-    <t>NV00146</t>
-  </si>
-  <si>
-    <t>Trang cute</t>
+    <t>NV00006</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -90,7 +104,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +117,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +125,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -545,30 +559,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -577,10 +593,13 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -589,10 +608,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -601,8 +623,11 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,127 +641,140 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>12810000</v>
+        <v>100000</v>
       </c>
       <c r="F6" s="3">
-        <v>678716.278492327</v>
-      </c>
-      <c r="G6" s="4">
-        <v>44513.4560148958</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>34015000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1199909.5532742</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>32815090.4467258</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45218.4706020833</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>69880500</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1592046.40618912</v>
-      </c>
-      <c r="G7" s="4">
-        <v>44512.6842943634</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>702000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>116768984.906463</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-116066984.906463</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45219.5960814005</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="8" spans="1:11" ht="15">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
-        <v>52850000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2943931.47292806</v>
-      </c>
-      <c r="G8" s="4">
-        <v>44509.6751118056</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5">
-        <f>SUM(C$6:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <f>SUM(D$6:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f>SUM(E$6:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f>SUM(F$6:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5">
+        <f>SUM(C$6:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(D$6:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUM(E$6:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(F$6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(G$6:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUM(H$6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f>SUM(I$6:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
